--- a/07-julio/6-portal-cliente/tettamanti/TETTAMANTI.xlsx
+++ b/07-julio/6-portal-cliente/tettamanti/TETTAMANTI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\06-junio\2_TETTAMANTI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\07-julio\6-portal-cliente\tettamanti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3ADBD5-00DB-4E48-8905-5D0BF2831E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBC6B2F-2366-4359-A02A-F62A39D978D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27375" yWindow="480" windowWidth="26520" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
     <t>NO REM</t>
   </si>
   <si>
-    <t>JUNIO Y SAC 2025</t>
+    <t>JULIO  2025</t>
   </si>
 </sst>
 </file>
@@ -493,7 +493,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,32 +573,32 @@
         <v>2</v>
       </c>
       <c r="B7" s="8">
-        <v>606814.81000000006</v>
+        <v>611865.03</v>
       </c>
       <c r="C7" s="8">
         <v>0</v>
       </c>
       <c r="D7" s="8">
         <f>SUM(B7:C7)</f>
-        <v>606814.81000000006</v>
+        <v>611865.03</v>
       </c>
       <c r="E7" s="10">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="F7" s="10">
         <v>0</v>
       </c>
       <c r="G7" s="10">
         <f>+E7+F7</f>
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="H7" s="6">
         <f>+D7+G7</f>
-        <v>626814.81000000006</v>
+        <v>641865.03</v>
       </c>
       <c r="I7" s="6">
         <f>+H7*2</f>
-        <v>1253629.6200000001</v>
+        <v>1283730.06</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
@@ -635,32 +635,32 @@
         <v>2</v>
       </c>
       <c r="B10" s="8">
-        <v>606814.81000000006</v>
+        <v>0</v>
       </c>
       <c r="C10" s="8">
-        <v>303407.40999999997</v>
+        <v>0</v>
       </c>
       <c r="D10" s="8">
         <f>SUM(B10:C10)</f>
-        <v>910222.22</v>
+        <v>0</v>
       </c>
       <c r="E10" s="10">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="10">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G10" s="10">
         <f>+E10+F10</f>
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="H10" s="6">
         <f>+D10+G10</f>
-        <v>940222.22</v>
+        <v>0</v>
       </c>
       <c r="I10" s="6">
         <f>+H10*2</f>
-        <v>1880444.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
